--- a/Random Forest/Results/Results RF large periods.xlsx
+++ b/Random Forest/Results/Results RF large periods.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Виталий\Desktop\учеба\Научная работа\Random Forest\Results\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Универ\Научная работа\Random Forest\Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AEB7A4C-600B-41B5-A717-9B0229BCB1C9}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46013B35-88FB-43BB-93B8-ED767EA4C2BB}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9525" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12915" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="est = 100, smpl =  5" sheetId="2" r:id="rId1"/>
@@ -370,31 +370,31 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -418,23 +418,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>504826</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>180976</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>489626</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>88068</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Рисунок 1">
+        <xdr:cNvPr id="6" name="Рисунок 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F18446F8-8A82-4565-AE51-073C7357552B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2A4D13CA-0C63-41F8-B17D-80E172E67F82}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -450,8 +450,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="114300" y="1276350"/>
-          <a:ext cx="3937676" cy="2209800"/>
+          <a:off x="4067176" y="1133476"/>
+          <a:ext cx="4524374" cy="2002592"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -462,23 +462,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>47624</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>114301</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>211091</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>276176</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Рисунок 2">
+        <xdr:cNvPr id="7" name="Рисунок 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{456703BA-366A-4082-B25E-C5BFB8A539FF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DA38BE8F-513A-4F52-9F22-8AE8239A2365}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -494,8 +494,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4124324" y="1295400"/>
-          <a:ext cx="4240167" cy="2371725"/>
+          <a:off x="0" y="1066801"/>
+          <a:ext cx="3838526" cy="1790700"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -506,23 +506,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>161926</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>86075</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:colOff>280999</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>104776</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Рисунок 3">
+        <xdr:cNvPr id="8" name="Рисунок 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4CC52086-F76B-4306-9726-D50DC79DF230}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{45DBE391-D335-423C-8AF9-C386655D5FA6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -538,15 +538,12 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8591550" y="1304925"/>
-          <a:ext cx="4334225" cy="2438400"/>
+          <a:off x="8639175" y="1114426"/>
+          <a:ext cx="4576774" cy="2038350"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:ln>
-          <a:prstDash val="solid"/>
-        </a:ln>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -554,22 +551,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>200025</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>113412</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>11755</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Рисунок 4">
+        <xdr:cNvPr id="9" name="Рисунок 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1508C905-7062-46C4-A0F1-140CB174854A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD1F6DDE-69CF-4E22-9900-0C59E42DCDA4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -585,8 +582,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13039725" y="1295400"/>
-          <a:ext cx="4180587" cy="2419350"/>
+          <a:off x="13335000" y="1019175"/>
+          <a:ext cx="5098105" cy="2276475"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -885,7 +882,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AF49"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
@@ -899,25 +896,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="27"/>
-      <c r="J1" s="27"/>
-      <c r="K1" s="27"/>
-      <c r="L1" s="27"/>
-      <c r="M1" s="27"/>
-      <c r="N1" s="27"/>
-      <c r="O1" s="27"/>
-      <c r="P1" s="27"/>
-      <c r="Q1" s="27"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
+      <c r="K1" s="23"/>
+      <c r="L1" s="23"/>
+      <c r="M1" s="23"/>
+      <c r="N1" s="23"/>
+      <c r="O1" s="23"/>
+      <c r="P1" s="23"/>
+      <c r="Q1" s="23"/>
     </row>
     <row r="2" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
@@ -985,38 +982,38 @@
       <c r="AF7" s="5"/>
     </row>
     <row r="8" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A8" s="28" t="s">
+      <c r="A8" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="29" t="s">
+      <c r="B8" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="30" t="s">
+      <c r="C8" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="23" t="s">
+      <c r="D8" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="E8" s="23"/>
-      <c r="F8" s="23"/>
-      <c r="G8" s="23"/>
-      <c r="I8" s="23" t="s">
+      <c r="E8" s="30"/>
+      <c r="F8" s="30"/>
+      <c r="G8" s="30"/>
+      <c r="I8" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="J8" s="23"/>
-      <c r="K8" s="23"/>
-      <c r="L8" s="23"/>
-      <c r="N8" s="23" t="s">
+      <c r="J8" s="30"/>
+      <c r="K8" s="30"/>
+      <c r="L8" s="30"/>
+      <c r="N8" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="O8" s="23"/>
-      <c r="P8" s="23"/>
-      <c r="Q8" s="23"/>
+      <c r="O8" s="30"/>
+      <c r="P8" s="30"/>
+      <c r="Q8" s="30"/>
     </row>
     <row r="9" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A9" s="28"/>
-      <c r="B9" s="29"/>
-      <c r="C9" s="31"/>
+      <c r="A9" s="31"/>
+      <c r="B9" s="24"/>
+      <c r="C9" s="26"/>
       <c r="D9" s="13" t="s">
         <v>13</v>
       </c>
@@ -1363,25 +1360,25 @@
       <c r="M27" s="5"/>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A30" s="27" t="s">
+      <c r="A30" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="B30" s="27"/>
-      <c r="C30" s="27"/>
-      <c r="D30" s="27"/>
-      <c r="E30" s="27"/>
-      <c r="F30" s="27"/>
-      <c r="G30" s="27"/>
-      <c r="H30" s="27"/>
-      <c r="I30" s="27"/>
-      <c r="J30" s="27"/>
-      <c r="K30" s="27"/>
-      <c r="L30" s="27"/>
-      <c r="M30" s="27"/>
-      <c r="N30" s="27"/>
-      <c r="O30" s="27"/>
-      <c r="P30" s="27"/>
-      <c r="Q30" s="27"/>
+      <c r="B30" s="23"/>
+      <c r="C30" s="23"/>
+      <c r="D30" s="23"/>
+      <c r="E30" s="23"/>
+      <c r="F30" s="23"/>
+      <c r="G30" s="23"/>
+      <c r="H30" s="23"/>
+      <c r="I30" s="23"/>
+      <c r="J30" s="23"/>
+      <c r="K30" s="23"/>
+      <c r="L30" s="23"/>
+      <c r="M30" s="23"/>
+      <c r="N30" s="23"/>
+      <c r="O30" s="23"/>
+      <c r="P30" s="23"/>
+      <c r="Q30" s="23"/>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
@@ -1449,24 +1446,24 @@
       <c r="C37" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="D37" s="24" t="s">
+      <c r="D37" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="E37" s="25"/>
-      <c r="F37" s="25"/>
-      <c r="G37" s="26"/>
-      <c r="I37" s="24" t="s">
+      <c r="E37" s="28"/>
+      <c r="F37" s="28"/>
+      <c r="G37" s="29"/>
+      <c r="I37" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="J37" s="25"/>
-      <c r="K37" s="25"/>
-      <c r="L37" s="26"/>
-      <c r="N37" s="24" t="s">
+      <c r="J37" s="28"/>
+      <c r="K37" s="28"/>
+      <c r="L37" s="29"/>
+      <c r="N37" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="O37" s="25"/>
-      <c r="P37" s="25"/>
-      <c r="Q37" s="26"/>
+      <c r="O37" s="28"/>
+      <c r="P37" s="28"/>
+      <c r="Q37" s="29"/>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A38" s="11"/>
@@ -1707,24 +1704,24 @@
       <c r="C44" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="D44" s="24" t="s">
+      <c r="D44" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="E44" s="25"/>
-      <c r="F44" s="25"/>
-      <c r="G44" s="26"/>
-      <c r="I44" s="24" t="s">
+      <c r="E44" s="28"/>
+      <c r="F44" s="28"/>
+      <c r="G44" s="29"/>
+      <c r="I44" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="J44" s="25"/>
-      <c r="K44" s="25"/>
-      <c r="L44" s="26"/>
-      <c r="N44" s="24" t="s">
+      <c r="J44" s="28"/>
+      <c r="K44" s="28"/>
+      <c r="L44" s="29"/>
+      <c r="N44" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="O44" s="25"/>
-      <c r="P44" s="25"/>
-      <c r="Q44" s="26"/>
+      <c r="O44" s="28"/>
+      <c r="P44" s="28"/>
+      <c r="Q44" s="29"/>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A45" s="16"/>
@@ -1981,8 +1978,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E6C12CE-3C9B-4AE8-8CC2-E676AF95904E}">
   <dimension ref="A1:AA5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="S5" sqref="S1:S5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="W23" sqref="W23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Random Forest/Results/Results RF large periods.xlsx
+++ b/Random Forest/Results/Results RF large periods.xlsx
@@ -5,25 +5,27 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Виталий\Desktop\учеба\Научная работа\Random Forest\Results\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Универ\Научная работа\Random Forest\Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36267F8C-B468-4BE0-80B9-FBE3FA5441E3}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B9D070C-CDC4-4A06-9155-B6C0F3D33D94}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9525" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="По годам" sheetId="1" r:id="rId1"/>
-    <sheet name="По годам CV" sheetId="4" r:id="rId2"/>
-    <sheet name="По сезонам" sheetId="2" r:id="rId3"/>
-    <sheet name="По сезонам CV" sheetId="3" r:id="rId4"/>
+    <sheet name="По годам Valid+CV" sheetId="2" r:id="rId2"/>
+    <sheet name="По годам CV" sheetId="3" r:id="rId3"/>
+    <sheet name="По сезонам" sheetId="4" r:id="rId4"/>
+    <sheet name="По сезонам Valid+CV" sheetId="5" r:id="rId5"/>
+    <sheet name="По сезонам CV" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="50">
   <si>
     <t>С определённого года по н.в.</t>
   </si>
@@ -121,12 +123,42 @@
     <t>2021-01-02 — 2022-01-01 {'max_features': 0.55, 'n_estimators': 750}</t>
   </si>
   <si>
+    <t>2019-01-01 — 2023-03-22 {'max_features': 0.55, 'n_estimators': 835}</t>
+  </si>
+  <si>
+    <t>CV</t>
+  </si>
+  <si>
+    <t>Test</t>
+  </si>
+  <si>
+    <t>2020-01-01 — 2023-03-22 {'max_features': 0.55, 'n_estimators': 670}</t>
+  </si>
+  <si>
+    <t>2021-01-02 — 2023-03-22 {'max_features': 0.325, 'n_estimators': 670}</t>
+  </si>
+  <si>
+    <t>2022-01-01 — 2023-03-22 {'max_features': 0.1, 'n_estimators': 340}</t>
+  </si>
+  <si>
+    <t>2019-01-01 — 2020-01-01 {'max_features': 0.1, 'n_estimators': 10}</t>
+  </si>
+  <si>
+    <t>2020-01-01 — 2020-12-31 {'max_features': 0.325, 'n_estimators': 175}</t>
+  </si>
+  <si>
+    <t>2021-01-02 — 2022-01-01 {'max_features': 0.1, 'n_estimators': 175}</t>
+  </si>
+  <si>
+    <t>test_size = 0.35, estNum = 100</t>
+  </si>
+  <si>
+    <t>test_size = 0.3, estNum = 1000</t>
+  </si>
+  <si>
     <t>2019-01-01 — 2023-03-22 {'max_features': 0.775, 'n_estimators': 251}</t>
   </si>
   <si>
-    <t>Test</t>
-  </si>
-  <si>
     <t>2019-01-01 — 2023-03-22 {'max_features': 0.55, 'n_estimators': 750}</t>
   </si>
   <si>
@@ -136,17 +168,20 @@
     <t>2019-01-01 — 2023-03-22 {'max_features': 0.775, 'n_estimators': 1000}</t>
   </si>
   <si>
-    <t>test_size = 0.35, estNum = 100</t>
-  </si>
-  <si>
-    <t>test_size = 0.3, estNum = 1000</t>
+    <t>2019-01-01 — 2023-03-22 {'max_features': 0.55, 'n_estimators': 175}</t>
+  </si>
+  <si>
+    <t>2019-01-01 — 2023-03-22 {'max_features': 0.55, 'n_estimators': 670}</t>
+  </si>
+  <si>
+    <t>2019-01-01 — 2023-03-22 {'max_features': 0.1, 'n_estimators': 1000}</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -217,6 +252,18 @@
       <family val="2"/>
       <charset val="204"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -244,7 +291,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -418,11 +465,41 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -486,7 +563,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -496,37 +572,48 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -564,7 +651,7 @@
         <xdr:cNvPr id="2" name="Рисунок 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -611,7 +698,7 @@
         <xdr:cNvPr id="3" name="Рисунок 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -658,7 +745,7 @@
         <xdr:cNvPr id="4" name="Рисунок 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -705,7 +792,7 @@
         <xdr:cNvPr id="5" name="Рисунок 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1030,34 +1117,34 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.140625" style="23" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12" style="23" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.140625" style="23" customWidth="1"/>
-    <col min="8" max="8" width="18.42578125" style="23" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="23.140625" style="23" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="18.42578125" style="23" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.140625" style="30" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12" style="30" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" style="30" customWidth="1"/>
+    <col min="8" max="8" width="18.42578125" style="30" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23.140625" style="30" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="18.42578125" style="30" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
-      <c r="I1" s="32"/>
-      <c r="J1" s="32"/>
-      <c r="K1" s="32"/>
-      <c r="L1" s="32"/>
-      <c r="M1" s="32"/>
-      <c r="N1" s="32"/>
-      <c r="O1" s="32"/>
-      <c r="P1" s="32"/>
-      <c r="Q1" s="32"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
+      <c r="I1" s="34"/>
+      <c r="J1" s="34"/>
+      <c r="K1" s="34"/>
+      <c r="L1" s="34"/>
+      <c r="M1" s="34"/>
+      <c r="N1" s="34"/>
+      <c r="O1" s="34"/>
+      <c r="P1" s="34"/>
+      <c r="Q1" s="34"/>
     </row>
     <row r="2" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
@@ -1125,38 +1212,38 @@
       <c r="AF7" s="4"/>
     </row>
     <row r="8" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A8" s="39" t="s">
+      <c r="A8" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="33" t="s">
+      <c r="B8" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="35" t="s">
+      <c r="C8" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="36" t="s">
+      <c r="D8" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="37"/>
-      <c r="F8" s="37"/>
-      <c r="G8" s="38"/>
-      <c r="I8" s="36" t="s">
+      <c r="E8" s="39"/>
+      <c r="F8" s="39"/>
+      <c r="G8" s="40"/>
+      <c r="I8" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="J8" s="37"/>
-      <c r="K8" s="37"/>
-      <c r="L8" s="38"/>
-      <c r="N8" s="36" t="s">
+      <c r="J8" s="39"/>
+      <c r="K8" s="39"/>
+      <c r="L8" s="40"/>
+      <c r="N8" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="O8" s="37"/>
-      <c r="P8" s="37"/>
-      <c r="Q8" s="38"/>
+      <c r="O8" s="39"/>
+      <c r="P8" s="39"/>
+      <c r="Q8" s="40"/>
     </row>
     <row r="9" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A9" s="34"/>
-      <c r="B9" s="34"/>
-      <c r="C9" s="34"/>
+      <c r="A9" s="36"/>
+      <c r="B9" s="36"/>
+      <c r="C9" s="36"/>
       <c r="D9" s="11" t="s">
         <v>13</v>
       </c>
@@ -1503,25 +1590,25 @@
       <c r="M27" s="4"/>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A30" s="31" t="s">
+      <c r="A30" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="B30" s="32"/>
-      <c r="C30" s="32"/>
-      <c r="D30" s="32"/>
-      <c r="E30" s="32"/>
-      <c r="F30" s="32"/>
-      <c r="G30" s="32"/>
-      <c r="H30" s="32"/>
-      <c r="I30" s="32"/>
-      <c r="J30" s="32"/>
-      <c r="K30" s="32"/>
-      <c r="L30" s="32"/>
-      <c r="M30" s="32"/>
-      <c r="N30" s="32"/>
-      <c r="O30" s="32"/>
-      <c r="P30" s="32"/>
-      <c r="Q30" s="32"/>
+      <c r="B30" s="34"/>
+      <c r="C30" s="34"/>
+      <c r="D30" s="34"/>
+      <c r="E30" s="34"/>
+      <c r="F30" s="34"/>
+      <c r="G30" s="34"/>
+      <c r="H30" s="34"/>
+      <c r="I30" s="34"/>
+      <c r="J30" s="34"/>
+      <c r="K30" s="34"/>
+      <c r="L30" s="34"/>
+      <c r="M30" s="34"/>
+      <c r="N30" s="34"/>
+      <c r="O30" s="34"/>
+      <c r="P30" s="34"/>
+      <c r="Q30" s="34"/>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="s">
@@ -1589,24 +1676,24 @@
       <c r="C37" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="D37" s="36" t="s">
+      <c r="D37" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="E37" s="37"/>
-      <c r="F37" s="37"/>
-      <c r="G37" s="38"/>
-      <c r="I37" s="36" t="s">
+      <c r="E37" s="39"/>
+      <c r="F37" s="39"/>
+      <c r="G37" s="40"/>
+      <c r="I37" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="J37" s="37"/>
-      <c r="K37" s="37"/>
-      <c r="L37" s="38"/>
-      <c r="N37" s="36" t="s">
+      <c r="J37" s="39"/>
+      <c r="K37" s="39"/>
+      <c r="L37" s="40"/>
+      <c r="N37" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="O37" s="37"/>
-      <c r="P37" s="37"/>
-      <c r="Q37" s="38"/>
+      <c r="O37" s="39"/>
+      <c r="P37" s="39"/>
+      <c r="Q37" s="40"/>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A38" s="10"/>
@@ -1847,24 +1934,24 @@
       <c r="C44" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="D44" s="36" t="s">
+      <c r="D44" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="E44" s="37"/>
-      <c r="F44" s="37"/>
-      <c r="G44" s="38"/>
-      <c r="I44" s="36" t="s">
+      <c r="E44" s="39"/>
+      <c r="F44" s="39"/>
+      <c r="G44" s="40"/>
+      <c r="I44" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="J44" s="37"/>
-      <c r="K44" s="37"/>
-      <c r="L44" s="38"/>
-      <c r="N44" s="36" t="s">
+      <c r="J44" s="39"/>
+      <c r="K44" s="39"/>
+      <c r="L44" s="40"/>
+      <c r="N44" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="O44" s="37"/>
-      <c r="P44" s="37"/>
-      <c r="Q44" s="38"/>
+      <c r="O44" s="39"/>
+      <c r="P44" s="39"/>
+      <c r="Q44" s="40"/>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A45" s="18"/>
@@ -2118,38 +2205,38 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB72FAC3-DA47-4629-8294-D1D98783572E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Q49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D16" sqref="D16:G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="64" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="64" style="30" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
-      <c r="I1" s="32"/>
-      <c r="J1" s="32"/>
-      <c r="K1" s="32"/>
-      <c r="L1" s="32"/>
-      <c r="M1" s="32"/>
-      <c r="N1" s="32"/>
-      <c r="O1" s="32"/>
-      <c r="P1" s="32"/>
-      <c r="Q1" s="32"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
+      <c r="I1" s="34"/>
+      <c r="J1" s="34"/>
+      <c r="K1" s="34"/>
+      <c r="L1" s="34"/>
+      <c r="M1" s="34"/>
+      <c r="N1" s="34"/>
+      <c r="O1" s="34"/>
+      <c r="P1" s="34"/>
+      <c r="Q1" s="34"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
@@ -2173,9 +2260,6 @@
       <c r="G2" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="H2" s="23"/>
-      <c r="J2" s="23"/>
-      <c r="Q2" s="23"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
@@ -2199,9 +2283,6 @@
       <c r="G3" s="4">
         <v>28.639900000000001</v>
       </c>
-      <c r="H3" s="23"/>
-      <c r="J3" s="23"/>
-      <c r="Q3" s="23"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="17" t="s">
@@ -2225,9 +2306,6 @@
       <c r="G4" s="4">
         <v>4.2127999999999997</v>
       </c>
-      <c r="H4" s="23"/>
-      <c r="J4" s="23"/>
-      <c r="Q4" s="23"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="17" t="s">
@@ -2251,9 +2329,6 @@
       <c r="G5" s="4">
         <v>0.62860000000000005</v>
       </c>
-      <c r="H5" s="23"/>
-      <c r="J5" s="23"/>
-      <c r="Q5" s="23"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="17" t="s">
@@ -2277,25 +2352,6 @@
       <c r="G6" s="4">
         <v>0.35730000000000001</v>
       </c>
-      <c r="H6" s="23"/>
-      <c r="J6" s="23"/>
-      <c r="Q6" s="23"/>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" s="23"/>
-      <c r="C7" s="23"/>
-      <c r="G7" s="23"/>
-      <c r="H7" s="23"/>
-      <c r="J7" s="23"/>
-      <c r="Q7" s="23"/>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A8" s="23"/>
-      <c r="C8" s="23"/>
-      <c r="G8" s="23"/>
-      <c r="H8" s="23"/>
-      <c r="J8" s="23"/>
-      <c r="Q8" s="23"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="21" t="s">
@@ -2319,9 +2375,6 @@
       <c r="G9" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="H9" s="23"/>
-      <c r="J9" s="23"/>
-      <c r="Q9" s="23"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="21" t="s">
@@ -2345,9 +2398,6 @@
       <c r="G10" s="4">
         <v>24.885300000000001</v>
       </c>
-      <c r="H10" s="23"/>
-      <c r="J10" s="23"/>
-      <c r="Q10" s="23"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="21" t="s">
@@ -2371,9 +2421,6 @@
       <c r="G11" s="4">
         <v>3.7576000000000001</v>
       </c>
-      <c r="H11" s="23"/>
-      <c r="J11" s="23"/>
-      <c r="Q11" s="23"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="21" t="s">
@@ -2397,9 +2444,6 @@
       <c r="G12" s="4">
         <v>0.54300000000000004</v>
       </c>
-      <c r="H12" s="23"/>
-      <c r="J12" s="23"/>
-      <c r="Q12" s="23"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="21" t="s">
@@ -2423,25 +2467,6 @@
       <c r="G13" s="4">
         <v>0.4415</v>
       </c>
-      <c r="H13" s="23"/>
-      <c r="J13" s="23"/>
-      <c r="Q13" s="23"/>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A14" s="23"/>
-      <c r="C14" s="23"/>
-      <c r="G14" s="23"/>
-      <c r="H14" s="23"/>
-      <c r="J14" s="23"/>
-      <c r="Q14" s="23"/>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A15" s="23"/>
-      <c r="C15" s="23"/>
-      <c r="G15" s="23"/>
-      <c r="H15" s="23"/>
-      <c r="J15" s="23"/>
-      <c r="Q15" s="23"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="21" t="s">
@@ -2465,9 +2490,6 @@
       <c r="G16" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="H16" s="23"/>
-      <c r="J16" s="23"/>
-      <c r="Q16" s="23"/>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="21" t="s">
@@ -2491,9 +2513,6 @@
       <c r="G17" s="4">
         <v>33.468899999999998</v>
       </c>
-      <c r="H17" s="23"/>
-      <c r="J17" s="23"/>
-      <c r="Q17" s="23"/>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" s="21" t="s">
@@ -2517,9 +2536,6 @@
       <c r="G18" s="4">
         <v>4.4684999999999997</v>
       </c>
-      <c r="H18" s="23"/>
-      <c r="J18" s="23"/>
-      <c r="Q18" s="23"/>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" s="21" t="s">
@@ -2543,9 +2559,6 @@
       <c r="G19" s="4">
         <v>0.63990000000000002</v>
       </c>
-      <c r="H19" s="23"/>
-      <c r="J19" s="23"/>
-      <c r="Q19" s="23"/>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" s="21" t="s">
@@ -2569,25 +2582,6 @@
       <c r="G20" s="4">
         <v>0.24890000000000001</v>
       </c>
-      <c r="H20" s="23"/>
-      <c r="J20" s="23"/>
-      <c r="Q20" s="23"/>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A21" s="23"/>
-      <c r="C21" s="23"/>
-      <c r="G21" s="23"/>
-      <c r="H21" s="23"/>
-      <c r="J21" s="23"/>
-      <c r="Q21" s="23"/>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A22" s="23"/>
-      <c r="C22" s="23"/>
-      <c r="G22" s="23"/>
-      <c r="H22" s="23"/>
-      <c r="J22" s="23"/>
-      <c r="Q22" s="23"/>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" s="21" t="s">
@@ -2611,9 +2605,6 @@
       <c r="G23" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="H23" s="23"/>
-      <c r="J23" s="23"/>
-      <c r="Q23" s="23"/>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" s="21" t="s">
@@ -2637,9 +2628,6 @@
       <c r="G24" s="4">
         <v>17.1479</v>
       </c>
-      <c r="H24" s="23"/>
-      <c r="J24" s="23"/>
-      <c r="Q24" s="23"/>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" s="21" t="s">
@@ -2663,9 +2651,6 @@
       <c r="G25" s="4">
         <v>3.3569</v>
       </c>
-      <c r="H25" s="23"/>
-      <c r="J25" s="23"/>
-      <c r="Q25" s="23"/>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26" s="21" t="s">
@@ -2689,9 +2674,6 @@
       <c r="G26" s="4">
         <v>0.47649999999999998</v>
       </c>
-      <c r="H26" s="23"/>
-      <c r="J26" s="23"/>
-      <c r="Q26" s="23"/>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27" s="21" t="s">
@@ -2715,46 +2697,27 @@
       <c r="G27" s="4">
         <v>0.61519999999999997</v>
       </c>
-      <c r="H27" s="23"/>
-      <c r="J27" s="23"/>
-      <c r="Q27" s="23"/>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A28" s="23"/>
-      <c r="C28" s="23"/>
-      <c r="G28" s="23"/>
-      <c r="H28" s="23"/>
-      <c r="J28" s="23"/>
-      <c r="Q28" s="23"/>
-    </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A29" s="23"/>
-      <c r="C29" s="23"/>
-      <c r="G29" s="23"/>
-      <c r="H29" s="23"/>
-      <c r="J29" s="23"/>
-      <c r="Q29" s="23"/>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A30" s="31" t="s">
+      <c r="A30" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="B30" s="32"/>
-      <c r="C30" s="32"/>
-      <c r="D30" s="32"/>
-      <c r="E30" s="32"/>
-      <c r="F30" s="32"/>
-      <c r="G30" s="32"/>
-      <c r="H30" s="32"/>
-      <c r="I30" s="32"/>
-      <c r="J30" s="32"/>
-      <c r="K30" s="32"/>
-      <c r="L30" s="32"/>
-      <c r="M30" s="32"/>
-      <c r="N30" s="32"/>
-      <c r="O30" s="32"/>
-      <c r="P30" s="32"/>
-      <c r="Q30" s="32"/>
+      <c r="B30" s="34"/>
+      <c r="C30" s="34"/>
+      <c r="D30" s="34"/>
+      <c r="E30" s="34"/>
+      <c r="F30" s="34"/>
+      <c r="G30" s="34"/>
+      <c r="H30" s="34"/>
+      <c r="I30" s="34"/>
+      <c r="J30" s="34"/>
+      <c r="K30" s="34"/>
+      <c r="L30" s="34"/>
+      <c r="M30" s="34"/>
+      <c r="N30" s="34"/>
+      <c r="O30" s="34"/>
+      <c r="P30" s="34"/>
+      <c r="Q30" s="34"/>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31" s="22" t="s">
@@ -2778,9 +2741,6 @@
       <c r="G31" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="H31" s="23"/>
-      <c r="J31" s="23"/>
-      <c r="Q31" s="23"/>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32" s="22" t="s">
@@ -2804,11 +2764,8 @@
       <c r="G32" s="4">
         <v>170.93879999999999</v>
       </c>
-      <c r="H32" s="23"/>
-      <c r="J32" s="23"/>
-      <c r="Q32" s="23"/>
-    </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="22" t="s">
         <v>6</v>
       </c>
@@ -2830,11 +2787,8 @@
       <c r="G33" s="4">
         <v>11.9139</v>
       </c>
-      <c r="H33" s="23"/>
-      <c r="J33" s="23"/>
-      <c r="Q33" s="23"/>
-    </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="22" t="s">
         <v>7</v>
       </c>
@@ -2856,11 +2810,8 @@
       <c r="G34" s="4">
         <v>1.6458999999999999</v>
       </c>
-      <c r="H34" s="23"/>
-      <c r="J34" s="23"/>
-      <c r="Q34" s="23"/>
-    </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="22" t="s">
         <v>8</v>
       </c>
@@ -2882,34 +2833,15 @@
       <c r="G35" s="4">
         <v>-2.8361000000000001</v>
       </c>
-      <c r="H35" s="23"/>
-      <c r="J35" s="23"/>
-      <c r="Q35" s="23"/>
-    </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A36" s="23"/>
-      <c r="C36" s="23"/>
-      <c r="G36" s="23"/>
-      <c r="H36" s="23"/>
-      <c r="J36" s="23"/>
-      <c r="Q36" s="23"/>
-    </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A37" s="23"/>
-      <c r="C37" s="23"/>
-      <c r="G37" s="23"/>
-      <c r="H37" s="23"/>
-      <c r="J37" s="23"/>
-      <c r="Q37" s="23"/>
-    </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="22" t="s">
         <v>30</v>
       </c>
       <c r="B38" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="C38" s="24" t="s">
+      <c r="C38" s="23" t="s">
         <v>25</v>
       </c>
       <c r="D38" s="19" t="s">
@@ -2924,11 +2856,8 @@
       <c r="G38" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="H38" s="23"/>
-      <c r="J38" s="23"/>
-      <c r="Q38" s="23"/>
-    </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="22" t="s">
         <v>4</v>
       </c>
@@ -2950,11 +2879,8 @@
       <c r="G39" s="4">
         <v>65.624799999999993</v>
       </c>
-      <c r="H39" s="23"/>
-      <c r="J39" s="23"/>
-      <c r="Q39" s="23"/>
-    </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="22" t="s">
         <v>6</v>
       </c>
@@ -2976,11 +2902,8 @@
       <c r="G40" s="4">
         <v>5.8287000000000004</v>
       </c>
-      <c r="H40" s="23"/>
-      <c r="J40" s="23"/>
-      <c r="Q40" s="23"/>
-    </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="22" t="s">
         <v>7</v>
       </c>
@@ -3002,11 +2925,8 @@
       <c r="G41" s="4">
         <v>0.72860000000000003</v>
       </c>
-      <c r="H41" s="23"/>
-      <c r="J41" s="23"/>
-      <c r="Q41" s="23"/>
-    </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="22" t="s">
         <v>8</v>
       </c>
@@ -3028,27 +2948,8 @@
       <c r="G42" s="4">
         <v>-0.47270000000000001</v>
       </c>
-      <c r="H42" s="23"/>
-      <c r="J42" s="23"/>
-      <c r="Q42" s="23"/>
-    </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A43" s="23"/>
-      <c r="C43" s="23"/>
-      <c r="G43" s="23"/>
-      <c r="H43" s="23"/>
-      <c r="J43" s="23"/>
-      <c r="Q43" s="23"/>
-    </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A44" s="23"/>
-      <c r="C44" s="23"/>
-      <c r="G44" s="23"/>
-      <c r="H44" s="23"/>
-      <c r="J44" s="23"/>
-      <c r="Q44" s="23"/>
-    </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="22" t="s">
         <v>31</v>
       </c>
@@ -3070,11 +2971,8 @@
       <c r="G45" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="H45" s="23"/>
-      <c r="J45" s="23"/>
-      <c r="Q45" s="23"/>
-    </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="22" t="s">
         <v>4</v>
       </c>
@@ -3096,11 +2994,8 @@
       <c r="G46" s="4">
         <v>39.422499999999999</v>
       </c>
-      <c r="H46" s="23"/>
-      <c r="J46" s="23"/>
-      <c r="Q46" s="23"/>
-    </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="22" t="s">
         <v>6</v>
       </c>
@@ -3122,11 +3017,8 @@
       <c r="G47" s="4">
         <v>5.2903000000000002</v>
       </c>
-      <c r="H47" s="23"/>
-      <c r="J47" s="23"/>
-      <c r="Q47" s="23"/>
-    </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="22" t="s">
         <v>7</v>
       </c>
@@ -3148,11 +3040,8 @@
       <c r="G48" s="4">
         <v>0.79749999999999999</v>
       </c>
-      <c r="H48" s="23"/>
-      <c r="J48" s="23"/>
-      <c r="Q48" s="23"/>
-    </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="22" t="s">
         <v>8</v>
       </c>
@@ -3174,9 +3063,6 @@
       <c r="G49" s="4">
         <v>0.1153</v>
       </c>
-      <c r="H49" s="23"/>
-      <c r="J49" s="23"/>
-      <c r="Q49" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -3188,7 +3074,876 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:Q49"/>
+  <sheetViews>
+    <sheetView topLeftCell="A10" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="L27" sqref="L27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="63" style="30" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A1" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
+      <c r="I1" s="34"/>
+      <c r="J1" s="34"/>
+      <c r="K1" s="34"/>
+      <c r="L1" s="34"/>
+      <c r="M1" s="34"/>
+      <c r="N1" s="34"/>
+      <c r="O1" s="34"/>
+      <c r="P1" s="34"/>
+      <c r="Q1" s="34"/>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A2" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="42" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" s="19" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A3" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3">
+        <v>29.52</v>
+      </c>
+      <c r="C3">
+        <v>300.74</v>
+      </c>
+      <c r="D3">
+        <v>401</v>
+      </c>
+      <c r="E3">
+        <v>44.37</v>
+      </c>
+      <c r="F3">
+        <v>55.22</v>
+      </c>
+      <c r="G3">
+        <v>30.23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A4" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4">
+        <v>3.1</v>
+      </c>
+      <c r="C4">
+        <v>9.67</v>
+      </c>
+      <c r="D4">
+        <v>15.08</v>
+      </c>
+      <c r="E4">
+        <v>5.49</v>
+      </c>
+      <c r="F4">
+        <v>5.64</v>
+      </c>
+      <c r="G4">
+        <v>4.55</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A5" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5">
+        <v>0.19</v>
+      </c>
+      <c r="C5">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="D5">
+        <v>0.45</v>
+      </c>
+      <c r="E5">
+        <v>0.45</v>
+      </c>
+      <c r="F5">
+        <v>0.77</v>
+      </c>
+      <c r="G5">
+        <v>0.64</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A6" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6">
+        <v>0.97</v>
+      </c>
+      <c r="C6" s="43">
+        <v>0.69</v>
+      </c>
+      <c r="D6">
+        <v>0.7</v>
+      </c>
+      <c r="E6">
+        <v>0.54</v>
+      </c>
+      <c r="F6">
+        <v>-0.13</v>
+      </c>
+      <c r="G6">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A9" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9" s="19" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A10" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10">
+        <v>27.52</v>
+      </c>
+      <c r="C10" s="43">
+        <v>284.55</v>
+      </c>
+      <c r="D10">
+        <v>360.64</v>
+      </c>
+      <c r="E10">
+        <v>44.78</v>
+      </c>
+      <c r="F10">
+        <v>33.770000000000003</v>
+      </c>
+      <c r="G10">
+        <v>26.29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A11" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11">
+        <v>3</v>
+      </c>
+      <c r="C11" s="43">
+        <v>9.5299999999999994</v>
+      </c>
+      <c r="D11">
+        <v>13.78</v>
+      </c>
+      <c r="E11">
+        <v>5.31</v>
+      </c>
+      <c r="F11">
+        <v>4.53</v>
+      </c>
+      <c r="G11">
+        <v>3.92</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A12" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12">
+        <v>0.19</v>
+      </c>
+      <c r="C12" s="43">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="D12">
+        <v>0.42</v>
+      </c>
+      <c r="E12">
+        <v>0.43</v>
+      </c>
+      <c r="F12">
+        <v>0.62</v>
+      </c>
+      <c r="G12">
+        <v>0.56000000000000005</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A13" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13">
+        <v>0.97</v>
+      </c>
+      <c r="C13">
+        <v>0.59</v>
+      </c>
+      <c r="D13">
+        <v>0.73</v>
+      </c>
+      <c r="E13">
+        <v>0.54</v>
+      </c>
+      <c r="F13">
+        <v>0.31</v>
+      </c>
+      <c r="G13">
+        <v>0.41</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A16" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="B16" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="C16" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="D16" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="E16" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="F16" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G16" s="19" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A17" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="B17">
+        <v>33.67</v>
+      </c>
+      <c r="C17">
+        <v>382.21</v>
+      </c>
+      <c r="D17">
+        <v>478.09</v>
+      </c>
+      <c r="E17">
+        <v>55.09</v>
+      </c>
+      <c r="F17">
+        <v>30.22</v>
+      </c>
+      <c r="G17">
+        <v>25.98</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A18" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="B18">
+        <v>3.4</v>
+      </c>
+      <c r="C18">
+        <v>11.16</v>
+      </c>
+      <c r="D18">
+        <v>16.190000000000001</v>
+      </c>
+      <c r="E18">
+        <v>5.84</v>
+      </c>
+      <c r="F18">
+        <v>4.5199999999999996</v>
+      </c>
+      <c r="G18">
+        <v>3.82</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A19" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="B19">
+        <v>0.22</v>
+      </c>
+      <c r="C19">
+        <v>0.7</v>
+      </c>
+      <c r="D19">
+        <v>0.49</v>
+      </c>
+      <c r="E19">
+        <v>0.46</v>
+      </c>
+      <c r="F19">
+        <v>0.63</v>
+      </c>
+      <c r="G19">
+        <v>0.56999999999999995</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A20" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="B20">
+        <v>0.97</v>
+      </c>
+      <c r="C20">
+        <v>0.34</v>
+      </c>
+      <c r="D20">
+        <v>0.64</v>
+      </c>
+      <c r="E20">
+        <v>0.43</v>
+      </c>
+      <c r="F20">
+        <v>0.38</v>
+      </c>
+      <c r="G20">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A23" s="29" t="s">
+        <v>37</v>
+      </c>
+      <c r="B23" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="C23" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="D23" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="E23" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="F23" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="G23" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A24" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="B24">
+        <v>34.68</v>
+      </c>
+      <c r="C24">
+        <v>510.57</v>
+      </c>
+      <c r="D24">
+        <v>666.63</v>
+      </c>
+      <c r="E24">
+        <v>63.74</v>
+      </c>
+      <c r="F24">
+        <v>33.44</v>
+      </c>
+      <c r="G24">
+        <v>18.29</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A25" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="B25">
+        <v>3.56</v>
+      </c>
+      <c r="C25">
+        <v>12.92</v>
+      </c>
+      <c r="D25">
+        <v>18.86</v>
+      </c>
+      <c r="E25">
+        <v>6.23</v>
+      </c>
+      <c r="F25">
+        <v>4.57</v>
+      </c>
+      <c r="G25">
+        <v>3.33</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A26" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="B26">
+        <v>0.24</v>
+      </c>
+      <c r="C26">
+        <v>0.8</v>
+      </c>
+      <c r="D26">
+        <v>0.6</v>
+      </c>
+      <c r="E26">
+        <v>0.5</v>
+      </c>
+      <c r="F26">
+        <v>0.66</v>
+      </c>
+      <c r="G26">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A27" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="B27">
+        <v>0.97</v>
+      </c>
+      <c r="C27">
+        <v>0.03</v>
+      </c>
+      <c r="D27">
+        <v>0.5</v>
+      </c>
+      <c r="E27">
+        <v>0.34</v>
+      </c>
+      <c r="F27">
+        <v>0.31</v>
+      </c>
+      <c r="G27">
+        <v>0.59</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A30" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="B30" s="34"/>
+      <c r="C30" s="34"/>
+      <c r="D30" s="34"/>
+      <c r="E30" s="34"/>
+      <c r="F30" s="34"/>
+      <c r="G30" s="34"/>
+      <c r="H30" s="34"/>
+      <c r="I30" s="34"/>
+      <c r="J30" s="34"/>
+      <c r="K30" s="34"/>
+      <c r="L30" s="34"/>
+      <c r="M30" s="34"/>
+      <c r="N30" s="34"/>
+      <c r="O30" s="34"/>
+      <c r="P30" s="34"/>
+      <c r="Q30" s="34"/>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A31" s="29" t="s">
+        <v>38</v>
+      </c>
+      <c r="B31" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="C31" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="D31" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="E31" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="F31" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="G31" s="19" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A32" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="B32">
+        <v>62.49</v>
+      </c>
+      <c r="C32">
+        <v>633.5</v>
+      </c>
+      <c r="D32">
+        <v>898.04</v>
+      </c>
+      <c r="E32">
+        <v>153.47999999999999</v>
+      </c>
+      <c r="F32">
+        <v>212.68</v>
+      </c>
+      <c r="G32">
+        <v>222.2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="B33">
+        <v>4.45</v>
+      </c>
+      <c r="C33">
+        <v>14.33</v>
+      </c>
+      <c r="D33">
+        <v>21.83</v>
+      </c>
+      <c r="E33">
+        <v>9.6300000000000008</v>
+      </c>
+      <c r="F33">
+        <v>11.76</v>
+      </c>
+      <c r="G33">
+        <v>10.51</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="B34">
+        <v>0.24</v>
+      </c>
+      <c r="C34">
+        <v>0.74</v>
+      </c>
+      <c r="D34">
+        <v>0.76</v>
+      </c>
+      <c r="E34">
+        <v>0.83</v>
+      </c>
+      <c r="F34">
+        <v>1.68</v>
+      </c>
+      <c r="G34">
+        <v>1.37</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="B35">
+        <v>0.94</v>
+      </c>
+      <c r="C35">
+        <v>-0.49</v>
+      </c>
+      <c r="D35">
+        <v>0.32</v>
+      </c>
+      <c r="E35">
+        <v>-0.59</v>
+      </c>
+      <c r="F35">
+        <v>-3.37</v>
+      </c>
+      <c r="G35">
+        <v>-3.99</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="B38" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="C38" s="42" t="s">
+        <v>33</v>
+      </c>
+      <c r="D38" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="E38" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="F38" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="G38" s="19" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="B39">
+        <v>13.75</v>
+      </c>
+      <c r="C39" s="43">
+        <v>208.6</v>
+      </c>
+      <c r="D39">
+        <v>544.53</v>
+      </c>
+      <c r="E39">
+        <v>54.93</v>
+      </c>
+      <c r="F39">
+        <v>79.400000000000006</v>
+      </c>
+      <c r="G39">
+        <v>56.61</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="B40">
+        <v>2.4</v>
+      </c>
+      <c r="C40" s="43">
+        <v>8.9700000000000006</v>
+      </c>
+      <c r="D40">
+        <v>17.68</v>
+      </c>
+      <c r="E40">
+        <v>6.04</v>
+      </c>
+      <c r="F40">
+        <v>6.49</v>
+      </c>
+      <c r="G40">
+        <v>5.82</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="B41">
+        <v>0.17</v>
+      </c>
+      <c r="C41" s="43">
+        <v>0.59</v>
+      </c>
+      <c r="D41">
+        <v>0.54</v>
+      </c>
+      <c r="E41">
+        <v>0.51</v>
+      </c>
+      <c r="F41">
+        <v>0.81</v>
+      </c>
+      <c r="G41">
+        <v>0.77</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="B42">
+        <v>0.98</v>
+      </c>
+      <c r="C42">
+        <v>0.09</v>
+      </c>
+      <c r="D42">
+        <v>0.59</v>
+      </c>
+      <c r="E42">
+        <v>0.43</v>
+      </c>
+      <c r="F42">
+        <v>-0.63</v>
+      </c>
+      <c r="G42">
+        <v>-0.27</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="B45" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="C45" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="D45" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="E45" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="F45" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="G45" s="19" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="B46">
+        <v>41.26</v>
+      </c>
+      <c r="C46">
+        <v>492.23</v>
+      </c>
+      <c r="D46">
+        <v>612.91999999999996</v>
+      </c>
+      <c r="E46">
+        <v>64.63</v>
+      </c>
+      <c r="F46">
+        <v>51.42</v>
+      </c>
+      <c r="G46">
+        <v>45.17</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="B47">
+        <v>3.73</v>
+      </c>
+      <c r="C47">
+        <v>13.83</v>
+      </c>
+      <c r="D47">
+        <v>17.88</v>
+      </c>
+      <c r="E47">
+        <v>6.03</v>
+      </c>
+      <c r="F47">
+        <v>6</v>
+      </c>
+      <c r="G47">
+        <v>5.53</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="B48">
+        <v>0.23</v>
+      </c>
+      <c r="C48">
+        <v>0.9</v>
+      </c>
+      <c r="D48">
+        <v>0.46</v>
+      </c>
+      <c r="E48">
+        <v>0.5</v>
+      </c>
+      <c r="F48">
+        <v>0.75</v>
+      </c>
+      <c r="G48">
+        <v>0.84</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="B49">
+        <v>0.95</v>
+      </c>
+      <c r="C49">
+        <v>0.17</v>
+      </c>
+      <c r="D49">
+        <v>0.54</v>
+      </c>
+      <c r="E49">
+        <v>0.33</v>
+      </c>
+      <c r="F49">
+        <v>-0.06</v>
+      </c>
+      <c r="G49">
+        <v>-0.01</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:Q1"/>
+    <mergeCell ref="A30:Q30"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AA5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3197,10 +3952,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.28515625" style="23" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.5703125" style="23" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.28515625" style="23" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="6.28515625" style="23" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.28515625" style="30" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.5703125" style="30" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.28515625" style="30" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="6.28515625" style="30" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.25">
@@ -3214,10 +3969,10 @@
         <v>3</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>14</v>
@@ -3229,10 +3984,10 @@
         <v>3</v>
       </c>
       <c r="K1" s="9" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="L1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="P1" s="1" t="s">
         <v>15</v>
@@ -3244,10 +3999,10 @@
         <v>3</v>
       </c>
       <c r="S1" s="9" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="T1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="W1" s="3" t="s">
         <v>16</v>
@@ -3259,10 +4014,10 @@
         <v>3</v>
       </c>
       <c r="Z1" s="9" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="AA1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.25">
@@ -3472,20 +4227,20 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9E2ACAE-CDCA-49B2-B7BD-935787269F06}">
-  <dimension ref="A1:V22"/>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:V6"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:V1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.85546875" customWidth="1"/>
-    <col min="7" max="7" width="16.140625" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" customWidth="1"/>
-    <col min="19" max="19" width="14.5703125" customWidth="1"/>
+    <col min="1" max="1" width="14.85546875" style="30" customWidth="1"/>
+    <col min="7" max="7" width="16.140625" style="30" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="30" customWidth="1"/>
+    <col min="19" max="19" width="14.5703125" style="30" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.25">
@@ -3502,64 +4257,64 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:22" ht="90" x14ac:dyDescent="0.25">
-      <c r="A2" s="26" t="s">
-        <v>32</v>
-      </c>
-      <c r="B2" s="27" t="s">
+    <row r="2" spans="1:22" ht="90" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="30" t="s">
+      <c r="C2" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="D2" s="27" t="s">
-        <v>33</v>
-      </c>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="26" t="s">
+      <c r="D2" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="H2" s="27" t="s">
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="H2" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="29" t="s">
+      <c r="I2" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="J2" s="27" t="s">
-        <v>33</v>
-      </c>
-      <c r="K2" s="28"/>
-      <c r="L2" s="28"/>
-      <c r="M2" s="26" t="s">
-        <v>35</v>
-      </c>
-      <c r="N2" s="27" t="s">
+      <c r="J2" s="28" t="s">
+        <v>34</v>
+      </c>
+      <c r="K2" s="26"/>
+      <c r="L2" s="26"/>
+      <c r="M2" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="N2" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="O2" s="27" t="s">
+      <c r="O2" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="P2" s="27" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q2" s="28"/>
-      <c r="R2" s="28"/>
-      <c r="S2" s="26" t="s">
-        <v>36</v>
-      </c>
-      <c r="T2" s="27" t="s">
+      <c r="P2" s="28" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q2" s="26"/>
+      <c r="R2" s="26"/>
+      <c r="S2" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="T2" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="U2" s="29" t="s">
+      <c r="U2" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="V2" s="27" t="s">
-        <v>33</v>
+      <c r="V2" s="28" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A3" s="25" t="s">
+      <c r="A3" s="24" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="4">
@@ -3572,7 +4327,7 @@
         <v>469.26740000000001</v>
       </c>
       <c r="E3" s="4"/>
-      <c r="G3" s="25" t="s">
+      <c r="G3" s="24" t="s">
         <v>4</v>
       </c>
       <c r="H3" s="4">
@@ -3584,7 +4339,7 @@
       <c r="J3" s="4">
         <v>43.452300000000001</v>
       </c>
-      <c r="M3" s="25" t="s">
+      <c r="M3" s="24" t="s">
         <v>4</v>
       </c>
       <c r="N3" s="4">
@@ -3596,7 +4351,7 @@
       <c r="P3" s="4">
         <v>28.5808</v>
       </c>
-      <c r="S3" s="25" t="s">
+      <c r="S3" s="24" t="s">
         <v>4</v>
       </c>
       <c r="T3" s="4">
@@ -3610,7 +4365,7 @@
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A4" s="25" t="s">
+      <c r="A4" s="24" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="4">
@@ -3623,7 +4378,7 @@
         <v>15.8172</v>
       </c>
       <c r="E4" s="4"/>
-      <c r="G4" s="25" t="s">
+      <c r="G4" s="24" t="s">
         <v>6</v>
       </c>
       <c r="H4" s="4">
@@ -3635,7 +4390,7 @@
       <c r="J4" s="4">
         <v>4.6855000000000002</v>
       </c>
-      <c r="M4" s="25" t="s">
+      <c r="M4" s="24" t="s">
         <v>6</v>
       </c>
       <c r="N4" s="4">
@@ -3647,7 +4402,7 @@
       <c r="P4" s="4">
         <v>4.0926999999999998</v>
       </c>
-      <c r="S4" s="25" t="s">
+      <c r="S4" s="24" t="s">
         <v>6</v>
       </c>
       <c r="T4" s="4">
@@ -3661,7 +4416,7 @@
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A5" s="25" t="s">
+      <c r="A5" s="24" t="s">
         <v>7</v>
       </c>
       <c r="B5" s="4">
@@ -3674,7 +4429,7 @@
         <v>0.46839999999999998</v>
       </c>
       <c r="E5" s="4"/>
-      <c r="G5" s="25" t="s">
+      <c r="G5" s="24" t="s">
         <v>7</v>
       </c>
       <c r="H5" s="4">
@@ -3686,7 +4441,7 @@
       <c r="J5" s="4">
         <v>0.37959999999999999</v>
       </c>
-      <c r="M5" s="25" t="s">
+      <c r="M5" s="24" t="s">
         <v>7</v>
       </c>
       <c r="N5" s="4">
@@ -3698,7 +4453,7 @@
       <c r="P5" s="4">
         <v>0.49209999999999998</v>
       </c>
-      <c r="S5" s="25" t="s">
+      <c r="S5" s="24" t="s">
         <v>7</v>
       </c>
       <c r="T5" s="4">
@@ -3712,7 +4467,7 @@
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A6" s="25" t="s">
+      <c r="A6" s="24" t="s">
         <v>8</v>
       </c>
       <c r="B6" s="4">
@@ -3725,7 +4480,7 @@
         <v>0.64729999999999999</v>
       </c>
       <c r="E6" s="4"/>
-      <c r="G6" s="25" t="s">
+      <c r="G6" s="24" t="s">
         <v>8</v>
       </c>
       <c r="H6" s="4">
@@ -3737,7 +4492,7 @@
       <c r="J6" s="4">
         <v>0.54900000000000004</v>
       </c>
-      <c r="M6" s="25" t="s">
+      <c r="M6" s="24" t="s">
         <v>8</v>
       </c>
       <c r="N6" s="4">
@@ -3749,7 +4504,7 @@
       <c r="P6" s="4">
         <v>0.41339999999999999</v>
       </c>
-      <c r="S6" s="25" t="s">
+      <c r="S6" s="24" t="s">
         <v>8</v>
       </c>
       <c r="T6" s="4">
@@ -3761,32 +4516,308 @@
       <c r="V6" s="4">
         <v>0.32140000000000002</v>
       </c>
-    </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A7" s="23"/>
-      <c r="C7" s="23"/>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A8" s="23"/>
-      <c r="C8" s="23"/>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A14" s="23"/>
-      <c r="C14" s="23"/>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A15" s="23"/>
-      <c r="C15" s="23"/>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="23"/>
-      <c r="C21" s="23"/>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="23"/>
-      <c r="C22" s="23"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:V6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E34" sqref="E34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="32.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A1" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="30"/>
+      <c r="K1" s="30"/>
+      <c r="L1" s="30"/>
+      <c r="M1" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="N1" s="30"/>
+      <c r="O1" s="30"/>
+      <c r="P1" s="30"/>
+      <c r="Q1" s="30"/>
+      <c r="R1" s="30"/>
+      <c r="S1" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="T1" s="30"/>
+      <c r="U1" s="30"/>
+      <c r="V1" s="30"/>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A2" s="31" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" s="31" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="31" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="G2" s="31" t="s">
+        <v>48</v>
+      </c>
+      <c r="H2" s="31" t="s">
+        <v>2</v>
+      </c>
+      <c r="I2" s="31" t="s">
+        <v>33</v>
+      </c>
+      <c r="J2" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="M2" s="31" t="s">
+        <v>49</v>
+      </c>
+      <c r="N2" s="31" t="s">
+        <v>2</v>
+      </c>
+      <c r="O2" s="31" t="s">
+        <v>33</v>
+      </c>
+      <c r="P2" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="S2" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="T2" s="31" t="s">
+        <v>2</v>
+      </c>
+      <c r="U2" s="31" t="s">
+        <v>33</v>
+      </c>
+      <c r="V2" s="31" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A3" s="32" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3">
+        <v>78.56</v>
+      </c>
+      <c r="C3">
+        <v>735.42</v>
+      </c>
+      <c r="D3">
+        <v>380.14</v>
+      </c>
+      <c r="G3" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="H3">
+        <v>5.9</v>
+      </c>
+      <c r="I3">
+        <v>51.68</v>
+      </c>
+      <c r="J3">
+        <v>38.42</v>
+      </c>
+      <c r="M3" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="N3">
+        <v>3.55</v>
+      </c>
+      <c r="O3">
+        <v>29.22</v>
+      </c>
+      <c r="P3">
+        <v>24.74</v>
+      </c>
+      <c r="S3" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="T3">
+        <v>3.45</v>
+      </c>
+      <c r="U3">
+        <v>39.340000000000003</v>
+      </c>
+      <c r="V3">
+        <v>24.75</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A4" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4">
+        <v>5.93</v>
+      </c>
+      <c r="C4">
+        <v>18.38</v>
+      </c>
+      <c r="D4">
+        <v>15.08</v>
+      </c>
+      <c r="G4" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="H4">
+        <v>1.79</v>
+      </c>
+      <c r="I4">
+        <v>5.39</v>
+      </c>
+      <c r="J4">
+        <v>4.3600000000000003</v>
+      </c>
+      <c r="M4" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="N4">
+        <v>1.27</v>
+      </c>
+      <c r="O4">
+        <v>3.77</v>
+      </c>
+      <c r="P4">
+        <v>3.84</v>
+      </c>
+      <c r="S4" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="T4">
+        <v>1.32</v>
+      </c>
+      <c r="U4">
+        <v>4.2300000000000004</v>
+      </c>
+      <c r="V4">
+        <v>3.88</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A5" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5">
+        <v>0.18</v>
+      </c>
+      <c r="C5">
+        <v>0.54</v>
+      </c>
+      <c r="D5">
+        <v>0.47</v>
+      </c>
+      <c r="G5" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="H5">
+        <v>0.15</v>
+      </c>
+      <c r="I5">
+        <v>0.44</v>
+      </c>
+      <c r="J5">
+        <v>0.37</v>
+      </c>
+      <c r="M5" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="N5">
+        <v>0.17</v>
+      </c>
+      <c r="O5">
+        <v>0.52</v>
+      </c>
+      <c r="P5">
+        <v>0.48</v>
+      </c>
+      <c r="S5" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="T5">
+        <v>0.17</v>
+      </c>
+      <c r="U5">
+        <v>0.51</v>
+      </c>
+      <c r="V5">
+        <v>0.59</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A6" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6">
+        <v>0.96</v>
+      </c>
+      <c r="C6">
+        <v>0.64</v>
+      </c>
+      <c r="D6">
+        <v>0.71</v>
+      </c>
+      <c r="G6" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="H6">
+        <v>0.95</v>
+      </c>
+      <c r="I6">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="J6">
+        <v>0.6</v>
+      </c>
+      <c r="M6" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="N6">
+        <v>0.9</v>
+      </c>
+      <c r="O6">
+        <v>0.16</v>
+      </c>
+      <c r="P6">
+        <v>0.49</v>
+      </c>
+      <c r="S6" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="T6">
+        <v>0.94</v>
+      </c>
+      <c r="U6">
+        <v>0.32</v>
+      </c>
+      <c r="V6">
+        <v>0.44</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>